--- a/data/trans_dic/P44A$otras-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44A$otras-Estudios-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.2004482020945665</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.006591055023348496</v>
+        <v>0.006591055023348498</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04567090899926604</v>
+        <v>0.04484452529964295</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1226385034751711</v>
+        <v>0.1180577563454953</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2153928183213609</v>
+        <v>0.211908912766905</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09140024036343836</v>
+        <v>0.09623201065110322</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1680591660139306</v>
+        <v>0.1586273929713109</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1369066135641635</v>
+        <v>0.1312188823280706</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001943507334939809</v>
+        <v>0.001816584488803306</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2656971866999318</v>
+        <v>0.237327880232569</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3491419900793813</v>
+        <v>0.3434229332616048</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03011967485650602</v>
+        <v>0.02449379530942809</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4559466068586928</v>
+        <v>0.4528818383658262</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3223882333697836</v>
+        <v>0.3083073283419587</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0205105858042784</v>
+        <v>0.02020319241143536</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3385627056354829</v>
+        <v>0.3286273757734373</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2894381326134224</v>
+        <v>0.2898041302214367</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01718360597766613</v>
+        <v>0.01763351058289212</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.1779728885614696</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.007912866456760061</v>
+        <v>0.007912866456760063</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.3877395516349005</v>
@@ -773,7 +773,7 @@
         <v>0.2336684198500956</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.006450460374266201</v>
+        <v>0.0064504603742662</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1452118430302538</v>
+        <v>0.133896143149717</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1029904635614581</v>
+        <v>0.1082669489234932</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001804277391363448</v>
+        <v>0.001773444743606742</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2101275118842005</v>
+        <v>0.2200206540661024</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1933011643623777</v>
+        <v>0.2136925804309797</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2069142429735746</v>
+        <v>0.2012642455648911</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1569435291731672</v>
+        <v>0.1630559788120741</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002154769964375215</v>
+        <v>0.002182816019946308</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4101232882550339</v>
+        <v>0.4079165021611957</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2828387638029364</v>
+        <v>0.2843686982722146</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02372960522914902</v>
+        <v>0.02393889175212765</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5796483362550174</v>
+        <v>0.5855778939592249</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.524074045420482</v>
+        <v>0.5305448192790357</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01653820239799253</v>
+        <v>0.01534340914846036</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4340569524442399</v>
+        <v>0.4193202186088301</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3247266407410971</v>
+        <v>0.3241945776253364</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01407803741480683</v>
+        <v>0.01607141620621927</v>
       </c>
     </row>
     <row r="10">
@@ -894,21 +894,21 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.1756003101934867</v>
+        <v>0.1614475511890333</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.1287892738267628</v>
+        <v>0.1348544413837408</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1340558197205547</v>
+        <v>0.1236762834702098</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.04454790983190905</v>
+        <v>0.04257381505197382</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2138904617983057</v>
+        <v>0.222120471258559</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
     </row>
@@ -921,21 +921,21 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.5704817321563165</v>
+        <v>0.5556912634472929</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.7319427261034972</v>
+        <v>0.7297390323345987</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.69946750412495</v>
+        <v>0.6837567518678338</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.3974331951309389</v>
+        <v>0.4008236571629676</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.543476720166483</v>
+        <v>0.5458313090562676</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
     </row>
@@ -975,7 +975,7 @@
         <v>0.2404054856739001</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.005164016948979558</v>
+        <v>0.005164016948979559</v>
       </c>
     </row>
     <row r="14">
@@ -986,31 +986,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09921729763617632</v>
+        <v>0.09740131407150063</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1582749956293795</v>
+        <v>0.1643437771870492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002010371917263926</v>
+        <v>0.002163883729879653</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2636282701684726</v>
+        <v>0.2620178555283114</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1882971180418143</v>
+        <v>0.1987321086689298</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0009378360470028811</v>
+        <v>0.001384139975969613</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1921707843080145</v>
+        <v>0.1900870152367287</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1924707357662024</v>
+        <v>0.1895583260372734</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.002132407419992276</v>
+        <v>0.002543149004797316</v>
       </c>
     </row>
     <row r="15">
@@ -1021,31 +1021,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.260840426262801</v>
+        <v>0.2482006372035832</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3037461635489021</v>
+        <v>0.297180607784838</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01426158101064275</v>
+        <v>0.01443966893737805</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4548598496540847</v>
+        <v>0.4526314725179359</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3614768324967054</v>
+        <v>0.36641100604634</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01065133897816195</v>
+        <v>0.01042322719106568</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3149529455874599</v>
+        <v>0.3226075801169092</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3007457988154776</v>
+        <v>0.2991769298414316</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.009843107789210836</v>
+        <v>0.009905895868396046</v>
       </c>
     </row>
     <row r="16">
@@ -1273,31 +1273,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2058</v>
+        <v>2021</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6342</v>
+        <v>6105</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13551</v>
+        <v>13332</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5677</v>
+        <v>5977</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>18145</v>
+        <v>17127</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15584</v>
+        <v>14937</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>654</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7">
@@ -1308,31 +1308,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11972</v>
+        <v>10693</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18056</v>
+        <v>17760</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4503</v>
+        <v>3662</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28685</v>
+        <v>28492</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20025</v>
+        <v>19150</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>3832</v>
+        <v>3775</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>36554</v>
+        <v>35481</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>32947</v>
+        <v>32988</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5780</v>
+        <v>5931</v>
       </c>
     </row>
     <row r="8">
@@ -1417,31 +1417,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7224</v>
+        <v>6661</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8041</v>
+        <v>8453</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6397</v>
+        <v>6698</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7044</v>
+        <v>7788</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16592</v>
+        <v>16139</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>17974</v>
+        <v>18674</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1152</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="11">
@@ -1452,31 +1452,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20402</v>
+        <v>20293</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22084</v>
+        <v>22204</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6877</v>
+        <v>6937</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17646</v>
+        <v>17826</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19099</v>
+        <v>19335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>4049</v>
+        <v>3756</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34806</v>
+        <v>33624</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>37189</v>
+        <v>37128</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7526</v>
+        <v>8592</v>
       </c>
     </row>
     <row r="12">
@@ -1562,21 +1562,21 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>5082</v>
+        <v>4673</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>1608</v>
+        <v>1684</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2164</v>
+        <v>1997</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>1205</v>
+        <v>1152</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9644</v>
+        <v>10015</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
     </row>
@@ -1589,21 +1589,21 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>16511</v>
+        <v>16083</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>9141</v>
+        <v>9114</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11292</v>
+        <v>11038</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>10751</v>
+        <v>10843</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24504</v>
+        <v>24610</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
     </row>
@@ -1689,31 +1689,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10851</v>
+        <v>10652</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25125</v>
+        <v>26088</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1144</v>
+        <v>1231</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>27903</v>
+        <v>27733</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>21598</v>
+        <v>22795</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>495</v>
+        <v>731</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>41357</v>
+        <v>40908</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>52629</v>
+        <v>51833</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2339</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="19">
@@ -1724,31 +1724,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>28527</v>
+        <v>27145</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>48217</v>
+        <v>47174</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8112</v>
+        <v>8213</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>48144</v>
+        <v>47908</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>41461</v>
+        <v>42027</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5627</v>
+        <v>5506</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>67781</v>
+        <v>69428</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>82236</v>
+        <v>81807</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>10799</v>
+        <v>10867</v>
       </c>
     </row>
     <row r="20">
